--- a/src/main/resources/excel/comparisonmgt/express_template.xlsx
+++ b/src/main/resources/excel/comparisonmgt/express_template.xlsx
@@ -22,7 +22,8 @@
     <t>计费重量</t>
   </si>
   <si>
-    <t>实收金额</t>
+    <t>运费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -363,7 +364,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/excel/comparisonmgt/express_template.xlsx
+++ b/src/main/resources/excel/comparisonmgt/express_template.xlsx
@@ -22,7 +22,8 @@
     <t>计费重量</t>
   </si>
   <si>
-    <t>实收金额</t>
+    <t>运费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
